--- a/projects/m0_midrise.xlsx
+++ b/projects/m0_midrise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="21204" windowHeight="4344" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="21204" windowHeight="4344" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4751,15 +4751,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1801">
@@ -6898,7 +6898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7378,14 +7378,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7400,7 +7400,7 @@
       <c r="D2" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7420,7 +7420,7 @@
       <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>871</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -9241,9 +9241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9282,7 +9282,7 @@
       <c r="A2" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>872</v>
       </c>
       <c r="C2" s="44" t="s">
@@ -9321,7 +9321,7 @@
       <c r="A3" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>873</v>
       </c>
       <c r="C3" s="44" t="s">
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -9481,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="40" t="b">
         <v>0</v>
@@ -9999,10 +9999,10 @@
         <v>64</v>
       </c>
       <c r="G25" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="40" t="b">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>64</v>
       </c>
       <c r="G26" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="40" t="b">
         <v>0</v>
@@ -10061,10 +10061,10 @@
         <v>64</v>
       </c>
       <c r="G27" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="40" t="b">
         <v>0</v>
@@ -10092,13 +10092,13 @@
         <v>64</v>
       </c>
       <c r="G28" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="40">
         <v>0</v>
@@ -10125,13 +10125,13 @@
         <v>64</v>
       </c>
       <c r="G29" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="40">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         <v>64</v>
       </c>
       <c r="G30" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="40">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>64</v>
       </c>
       <c r="G31" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="40">
         <v>0</v>
